--- a/Finflux Automation Excels/Client/4944-Arrears-Recognition-Based-On-the-Original-Schedule-MakeRepayment.xlsx
+++ b/Finflux Automation Excels/Client/4944-Arrears-Recognition-Based-On-the-Original-Schedule-MakeRepayment.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="6"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>clickonmakerepayment</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>88.2</t>
+  </si>
+  <si>
+    <t>ReceiptNumber</t>
   </si>
 </sst>
 </file>
@@ -502,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,9 +543,17 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -553,10 +564,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,9 +602,17 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -604,10 +623,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,9 +661,17 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
